--- a/Lab 6/Data/Run_4.xlsx
+++ b/Lab 6/Data/Run_4.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Dropbox\2015 Spring\LITEC\Labs\LITEC\Lab 6\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="960" yWindow="615" windowWidth="22515" windowHeight="9465"/>
   </bookViews>
@@ -513,8 +518,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -565,6 +571,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -909,11 +918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83200640"/>
-        <c:axId val="83199104"/>
+        <c:axId val="371199128"/>
+        <c:axId val="235064000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83200640"/>
+        <c:axId val="371199128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,12 +951,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83199104"/>
+        <c:crossAx val="235064000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83199104"/>
+        <c:axId val="235064000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +986,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83200640"/>
+        <c:crossAx val="371199128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1072,7 +1081,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1107,7 +1116,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1319,7 +1328,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="C2" sqref="C2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,13 +1342,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Lab 6/Data/Run_4.xlsx
+++ b/Lab 6/Data/Run_4.xlsx
@@ -678,9 +678,6 @@
                 <c:pt idx="18">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>8400</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -694,22 +691,22 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>322</c:v>
+                  <c:v>-48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>296</c:v>
+                  <c:v>-64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>227</c:v>
+                  <c:v>-47</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>234</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>276</c:v>
+                  <c:v>-96</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>23</c:v>
@@ -718,10 +715,10 @@
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>256</c:v>
+                  <c:v>-104</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>317</c:v>
+                  <c:v>-43</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>74</c:v>
@@ -730,7 +727,7 @@
                   <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>282</c:v>
+                  <c:v>-78</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>18</c:v>
@@ -739,16 +736,13 @@
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>202</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>231</c:v>
+                  <c:v>-51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>203</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,9 +818,6 @@
                 <c:pt idx="18">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>8400</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -891,9 +882,6 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
@@ -909,11 +897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83200640"/>
-        <c:axId val="83199104"/>
+        <c:axId val="100632832"/>
+        <c:axId val="100635008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83200640"/>
+        <c:axId val="100632832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,12 +930,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83199104"/>
+        <c:crossAx val="100635008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83199104"/>
+        <c:axId val="100635008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +965,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83200640"/>
+        <c:crossAx val="100632832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1316,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1347,7 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>322</v>
+        <v>-48</v>
       </c>
       <c r="E4">
         <v>800</v>
@@ -1370,7 +1358,7 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>296</v>
+        <v>-64</v>
       </c>
       <c r="E5">
         <v>1200</v>
@@ -1381,7 +1369,7 @@
         <v>45</v>
       </c>
       <c r="D6">
-        <v>227</v>
+        <v>-47</v>
       </c>
       <c r="E6">
         <v>2000</v>
@@ -1403,7 +1391,7 @@
         <v>45</v>
       </c>
       <c r="D8">
-        <v>234</v>
+        <v>-54</v>
       </c>
       <c r="E8">
         <v>2800</v>
@@ -1414,7 +1402,7 @@
         <v>45</v>
       </c>
       <c r="D9">
-        <v>276</v>
+        <v>-96</v>
       </c>
       <c r="E9">
         <v>3200</v>
@@ -1447,7 +1435,7 @@
         <v>45</v>
       </c>
       <c r="D12">
-        <v>256</v>
+        <v>-104</v>
       </c>
       <c r="E12">
         <v>4400</v>
@@ -1458,7 +1446,7 @@
         <v>45</v>
       </c>
       <c r="D13">
-        <v>317</v>
+        <v>-43</v>
       </c>
       <c r="E13">
         <v>4800</v>
@@ -1491,7 +1479,7 @@
         <v>45</v>
       </c>
       <c r="D16">
-        <v>282</v>
+        <v>-78</v>
       </c>
       <c r="E16">
         <v>6000</v>
@@ -1524,7 +1512,7 @@
         <v>45</v>
       </c>
       <c r="D19">
-        <v>202</v>
+        <v>-22</v>
       </c>
       <c r="E19">
         <v>7200</v>
@@ -1535,7 +1523,7 @@
         <v>45</v>
       </c>
       <c r="D20">
-        <v>231</v>
+        <v>-51</v>
       </c>
       <c r="E20">
         <v>7600</v>
@@ -1546,21 +1534,10 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>210</v>
+        <v>-30</v>
       </c>
       <c r="E21">
         <v>8000</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>45</v>
-      </c>
-      <c r="D22">
-        <v>203</v>
-      </c>
-      <c r="E22">
-        <v>8400</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 6/Data/Run_4.xlsx
+++ b/Lab 6/Data/Run_4.xlsx
@@ -823,66 +823,66 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_4!$C$3:$C$22</c:f>
+              <c:f>Run_4!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -897,11 +897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100632832"/>
-        <c:axId val="100635008"/>
+        <c:axId val="99092352"/>
+        <c:axId val="99094528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100632832"/>
+        <c:axId val="99092352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,12 +930,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100635008"/>
+        <c:crossAx val="99094528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100635008"/>
+        <c:axId val="99094528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +953,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Heading (degrees)</a:t>
+                  <a:t>Heading Error (degrees)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -965,7 +965,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100632832"/>
+        <c:crossAx val="99092352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,6 +1332,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>45</v>
       </c>
@@ -1343,6 +1346,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>45</v>
       </c>
@@ -1354,6 +1360,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>45</v>
       </c>
@@ -1365,6 +1374,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>45</v>
       </c>
@@ -1376,6 +1388,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>45</v>
       </c>
@@ -1387,6 +1402,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>45</v>
       </c>
@@ -1398,6 +1416,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>45</v>
       </c>
@@ -1409,6 +1430,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>45</v>
       </c>
@@ -1420,6 +1444,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>45</v>
       </c>
@@ -1431,6 +1458,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>45</v>
       </c>
@@ -1442,6 +1472,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>45</v>
       </c>
@@ -1453,6 +1486,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>45</v>
       </c>
@@ -1464,6 +1500,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>45</v>
       </c>
@@ -1475,6 +1514,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>45</v>
       </c>
@@ -1485,7 +1527,10 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>45</v>
       </c>
@@ -1496,7 +1541,10 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>45</v>
       </c>
@@ -1507,7 +1555,10 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>45</v>
       </c>
@@ -1518,7 +1569,10 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>45</v>
       </c>
@@ -1529,7 +1583,10 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>45</v>
       </c>
